--- a/data/trans_camb/P42-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P42-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,0</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 13,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,21; 12,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 13,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 13,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,21; 12,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 13,25</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 18,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 16,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,42; 18,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 18,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 16,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,42; 18,06</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 10,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,62; 9,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; 2,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 10,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,62; 9,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; 2,77</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,47%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 13,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 12,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,18; 3,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 13,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 12,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,18; 3,51</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 7,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 8,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 5,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 7,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 8,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 5,41</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 9,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 10,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 6,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 9,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 10,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 6,28</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,43; 9,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 9,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,25; 5,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,43; 9,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 9,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,25; 5,22</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,08; 12,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,69; 12,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,81; 6,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,08; 12,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,69; 12,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,81; 6,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>9,95</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,25</t>
+          <t>6,43; 13,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,25</t>
+          <t>6,43; 13,17</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,06</t>
+          <t>8,36; 17,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,06</t>
+          <t>8,36; 17,99</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-6,37</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 2,77</t>
+          <t>-29,47; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 2,77</t>
+          <t>-29,47; 4,61</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-7,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-7,97%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 3,51</t>
+          <t>-36,88; 5,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 3,51</t>
+          <t>-36,88; 5,81</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,41</t>
+          <t>-2,92; 5,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,41</t>
+          <t>-2,92; 5,55</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 6,28</t>
+          <t>-3,23; 6,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 6,28</t>
+          <t>-3,23; 6,5</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 5,22</t>
+          <t>-20,27; 6,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 5,22</t>
+          <t>-20,27; 6,1</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>-0,77%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 6,65</t>
+          <t>-25,43; 7,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 6,65</t>
+          <t>-25,43; 7,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42-Estudios-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,35</t>
+          <t>7,01; 13,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,25</t>
+          <t>5,43; 12,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,17</t>
+          <t>6,52; 13,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,35</t>
+          <t>7,01; 13,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,25</t>
+          <t>5,43; 12,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,17</t>
+          <t>6,52; 13,17</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 18,24</t>
+          <t>9,03; 18,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 16,75</t>
+          <t>7,12; 16,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,99</t>
+          <t>8,39; 18,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 18,24</t>
+          <t>9,03; 18,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 16,75</t>
+          <t>7,12; 16,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,99</t>
+          <t>8,39; 18,01</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,23</t>
+          <t>4,98; 10,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,78</t>
+          <t>4,73; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 4,61</t>
+          <t>-29,64; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,23</t>
+          <t>4,98; 10,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,78</t>
+          <t>4,73; 9,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 4,61</t>
+          <t>-29,64; 4,61</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 13,07</t>
+          <t>6,13; 12,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,49</t>
+          <t>5,82; 12,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 5,81</t>
+          <t>-37,53; 5,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 13,07</t>
+          <t>6,13; 12,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,49</t>
+          <t>5,82; 12,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 5,81</t>
+          <t>-37,53; 5,77</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 7,97</t>
+          <t>0,33; 8,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,48</t>
+          <t>1,27; 8,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,55</t>
+          <t>-3,07; 5,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 7,97</t>
+          <t>0,33; 8,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,48</t>
+          <t>1,27; 8,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,55</t>
+          <t>-3,07; 5,07</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 9,29</t>
+          <t>0,4; 9,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,08</t>
+          <t>1,48; 10,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,5</t>
+          <t>-3,45; 5,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 9,29</t>
+          <t>0,4; 9,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,08</t>
+          <t>1,48; 10,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,5</t>
+          <t>-3,45; 5,96</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 9,96</t>
+          <t>6,39; 9,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,92</t>
+          <t>6,24; 9,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 6,1</t>
+          <t>-19,24; 6,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 9,96</t>
+          <t>6,39; 9,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,92</t>
+          <t>6,24; 9,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 6,1</t>
+          <t>-19,24; 6,24</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,77</t>
+          <t>7,95; 12,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,71</t>
+          <t>7,79; 12,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 7,75</t>
+          <t>-24,13; 7,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,77</t>
+          <t>7,95; 12,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,71</t>
+          <t>7,79; 12,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 7,75</t>
+          <t>-24,13; 7,94</t>
         </is>
       </c>
     </row>
